--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.102666333333334</v>
+        <v>1.211767666666667</v>
       </c>
       <c r="H2">
-        <v>6.307999000000001</v>
+        <v>3.635303</v>
       </c>
       <c r="I2">
-        <v>0.03992401473981187</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="J2">
-        <v>0.03992401473981188</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2776998435321111</v>
+        <v>0.1600385596592222</v>
       </c>
       <c r="R2">
-        <v>2.499298591789</v>
+        <v>1.440347036933</v>
       </c>
       <c r="S2">
-        <v>0.03992401473981187</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="T2">
-        <v>0.03992401473981188</v>
+        <v>0.0191872416143265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.75404733333333</v>
+        <v>27.75404733333334</v>
       </c>
       <c r="H3">
-        <v>83.262142</v>
+        <v>83.26214200000001</v>
       </c>
       <c r="I3">
-        <v>0.526975192050016</v>
+        <v>0.4394601594090953</v>
       </c>
       <c r="J3">
-        <v>0.5269751920500161</v>
+        <v>0.4394601594090954</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.665486282662445</v>
+        <v>3.665486282662444</v>
       </c>
       <c r="R3">
         <v>32.989376543962</v>
       </c>
       <c r="S3">
-        <v>0.526975192050016</v>
+        <v>0.4394601594090953</v>
       </c>
       <c r="T3">
-        <v>0.5269751920500161</v>
+        <v>0.4394601594090954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.809992</v>
+        <v>34.18905066666667</v>
       </c>
       <c r="H4">
-        <v>68.42997600000001</v>
+        <v>102.567152</v>
       </c>
       <c r="I4">
-        <v>0.4331007932101721</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="J4">
-        <v>0.4331007932101722</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.012523246770668</v>
+        <v>4.515359317896888</v>
       </c>
       <c r="R4">
-        <v>27.11270922093601</v>
+        <v>40.638233861072</v>
       </c>
       <c r="S4">
-        <v>0.4331007932101721</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="T4">
-        <v>0.4331007932101722</v>
+        <v>0.5413525989765782</v>
       </c>
     </row>
   </sheetData>
